--- a/Timetables/Zorzi_Martin_Timetable.xlsx
+++ b/Timetables/Zorzi_Martin_Timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\OneDrive\Desktop\Schule\5\Diplomarbeit\Diplomarbeit_KI_Model_Auto\Timetables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F28565-F3CD-490B-AD79-9F70CA39312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D8AAA4-D7CD-45AD-AE09-7558A531D0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -117,13 +117,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{84A9176D-0D5A-493E-8350-2FEF5951878B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -401,7 +403,7 @@
   <dimension ref="B2:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,16 +556,13 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <f>SUM(E3:E9)</f>
         <v>0.64583333333333348</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E11" s="3">
-        <f>SUM(E3:E10)</f>
-        <v>1.291666666666667</v>
-      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
